--- a/backend/uploads/Sample weldment dimension file - Copy.xlsx
+++ b/backend/uploads/Sample weldment dimension file - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53C283A-9457-4A5C-B559-92A89CCB0285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636C7C3-D1F9-4ED9-A2CC-8AA42D53C796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A17ACA6-725F-4109-BF71-584CCE882799}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6A17ACA6-725F-4109-BF71-584CCE882799}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample weldment dimension file " sheetId="14" r:id="rId1"/>
@@ -222,12 +222,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -307,7 +313,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -351,6 +357,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -898,7 +911,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1298,38 +1311,38 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:11" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="19">
         <v>132.20000000000002</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="19">
         <v>50</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="19">
         <v>47.5</v>
       </c>
-      <c r="E13" s="5">
-        <v>60</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13" s="19">
+        <v>60</v>
+      </c>
+      <c r="F13" s="19">
         <v>46.2</v>
       </c>
-      <c r="G13" s="5">
-        <v>60</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="19">
+        <v>60</v>
+      </c>
+      <c r="H13" s="19">
         <v>100</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="19">
         <v>9.4</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1646,38 +1659,38 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:11" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="19">
         <v>190.3</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="19">
         <v>63</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="19">
         <v>61</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="19">
         <v>67</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="19">
         <v>60.2</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="19">
         <v>67</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="19">
         <v>159.20000000000002</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="19">
         <v>9.4</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="19">
         <v>165.60000000000002</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="19">
         <v>54.800000000000004</v>
       </c>
     </row>
@@ -1696,11 +1709,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
@@ -1714,6 +1722,11 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1722,6 +1735,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="PCP_AncillaryFiles" ma:contentTypeID="0x010100DC9BBE70135F3D4DB47F8BF089A576D000883D7BA6EBF56944AA39049D175D56D5" ma:contentTypeVersion="29" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="7f6d983afbcf04cbfdc9db9bf141604b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ee76dc95-7be5-4180-97ef-b1f45ed2facb" xmlns:ns3="d3e35a6f-ac1b-4f3f-bd9f-c84aaaaf98bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1be245133b28dd7f6baf5039dc45e73" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1969,15 +1991,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2002,6 +2015,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B4A34E-5E9B-4B0D-9732-6CF2FD62D372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2677B5E2-187F-4541-A1C0-B6D8C1A3E265}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2021,14 +2042,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B4A34E-5E9B-4B0D-9732-6CF2FD62D372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D0E95AE-2E3D-4C56-BF79-DF2EA58925BF}">
   <ds:schemaRefs>
